--- a/SimpCity US22 Test Document (3 Pass 0 Fail).xlsx
+++ b/SimpCity US22 Test Document (3 Pass 0 Fail).xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huiyi\Downloads\Year 3-Poly\Sem 3.2 DevOps\Tesr Documents\Sprint 4 V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DBE8C8-8D23-490A-8150-4425014A4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0235D-1E51-4FAA-B58F-8A8E645C3DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3885" windowWidth="21600" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US22 Sprint 4   " sheetId="27" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
     <t>Test Scenarios for SimpCity</t>
   </si>
@@ -1161,6 +1161,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1169,9 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1837,30 +1837,30 @@
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="8"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="18" style="68" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="74.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="74.88671875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
+      <c r="C1" s="124"/>
       <c r="D1" s="39"/>
       <c r="E1" s="37"/>
       <c r="F1" s="41"/>
@@ -1871,29 +1871,29 @@
       <c r="K1" s="11"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="124"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="14"/>
       <c r="E2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="124"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="85"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="124"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="121"/>
+      <c r="K2" s="122"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="23" t="s">
         <v>5</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="46" t="s">
         <v>10</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="25" t="s">
         <v>16</v>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="28" t="s">
         <v>17</v>
@@ -2007,26 +2007,26 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="86"/>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="122"/>
+      <c r="I7" s="123"/>
       <c r="J7"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="59" t="s">
         <v>24</v>
@@ -2052,7 +2052,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="47"/>
       <c r="C9" s="56"/>
@@ -2074,7 +2074,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
@@ -2090,7 +2090,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2106,7 +2106,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="69"/>
       <c r="B12" s="13"/>
       <c r="C12" s="53"/>
@@ -2119,7 +2119,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
         <v>27</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="67" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="67" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="107">
         <v>1</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="83"/>
     </row>
-    <row r="15" spans="1:12" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="319.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="107"/>
       <c r="B15" s="109"/>
       <c r="C15" s="111"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="K15" s="80"/>
     </row>
-    <row r="16" spans="1:12" ht="367.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="367.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="97">
         <v>2</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:41" s="78" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" s="78" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="95">
         <v>3</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:41" s="102" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" s="102" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="92">
         <v>4</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="AN18"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="74"/>
@@ -2320,28 +2320,28 @@
       <c r="J19" s="7"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="14"/>
       <c r="E20" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="85"/>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="124"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="121"/>
-    </row>
-    <row r="21" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K20" s="122"/>
+    </row>
+    <row r="21" spans="1:41" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="23" t="s">
         <v>5</v>
@@ -2370,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="46" t="s">
         <v>10</v>
@@ -2397,7 +2397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="25" t="s">
         <v>16</v>
@@ -2424,7 +2424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="28" t="s">
         <v>17</v>
@@ -2451,25 +2451,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="122"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="122"/>
+      <c r="F25" s="123"/>
       <c r="G25" s="86"/>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="123"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="59" t="s">
         <v>24</v>
@@ -2492,7 +2492,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="35"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="47"/>
       <c r="C27" s="56"/>
@@ -2500,7 +2500,9 @@
       <c r="E27" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="86"/>
       <c r="H27" s="64" t="s">
         <v>14</v>
@@ -2511,7 +2513,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="D28" s="5"/>
       <c r="E28" s="1"/>
@@ -2526,7 +2528,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2541,7 +2543,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" s="69"/>
       <c r="B30" s="13"/>
       <c r="C30" s="53"/>
@@ -2554,7 +2556,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:41" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="107">
         <v>1</v>
       </c>
@@ -2610,7 +2612,7 @@
       <c r="J32" s="82"/>
       <c r="K32" s="83"/>
     </row>
-    <row r="33" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="107"/>
       <c r="B33" s="109"/>
       <c r="C33" s="111"/>
@@ -2635,7 +2637,7 @@
       </c>
       <c r="K33" s="80"/>
     </row>
-    <row r="34" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="97">
         <v>2</v>
       </c>
@@ -2664,7 +2666,7 @@
       </c>
       <c r="K34" s="104"/>
     </row>
-    <row r="35" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="95">
         <v>3</v>
       </c>
@@ -2695,19 +2697,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
@@ -2716,12 +2711,19 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F33:F35"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F15 F18 F33" xr:uid="{F153D8BE-58F2-49C8-91E8-9653C76076D2}">
